--- a/data/trans_orig/IP16B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E50B157-4851-47FB-B515-8E597FDFB1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85CC8E9C-AC5F-4014-8EB8-C997D0C09721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{80EA003E-8683-46C0-B919-BAE2FD35E7B1}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{26F8AC27-FC53-4261-940F-1997693C011A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,19 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>Menos de 2</t>
   </si>
   <si>
     <t>Sí</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>10/50</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,19 +94,10 @@
     <t>43,07%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>mas de 50</t>
   </si>
   <si>
     <t>Capitales</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -510,7 +510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C8BDCD-FAF3-4075-A427-874F59A004A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3868AF5-CBE5-4680-AC60-647A09BA2232}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -628,49 +628,43 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>669</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -679,54 +673,48 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>669</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -736,39 +724,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -781,44 +769,44 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -827,46 +815,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>813</v>
+        <v>698</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>767</v>
+        <v>669</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1580</v>
+        <v>1367</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -878,46 +866,46 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>813</v>
+        <v>698</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>767</v>
+        <v>669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>1580</v>
+        <v>1367</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -928,14 +916,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>673</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -945,23 +935,25 @@
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>673</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -973,9 +965,11 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>673</v>
+      </c>
       <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
@@ -990,18 +984,20 @@
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>673</v>
+      </c>
       <c r="O11" s="7" t="s">
         <v>16</v>
       </c>
@@ -1023,44 +1019,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>673</v>
+        <v>813</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>767</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>673</v>
+        <v>1580</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1072,21 +1070,23 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>673</v>
+        <v>813</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>767</v>
+      </c>
       <c r="J13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1097,19 +1097,19 @@
         <v>16</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>673</v>
+        <v>1580</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1126,13 +1126,13 @@
         <v>2184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1141,13 +1141,13 @@
         <v>1436</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1156,13 +1156,13 @@
         <v>3620</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1177,13 +1177,13 @@
         <v>2184</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -1192,13 +1192,13 @@
         <v>1436</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -1207,13 +1207,13 @@
         <v>3620</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA5C0E1-0181-4D2C-86C7-4E15D0E7ECB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8127C21-97AF-4ED7-9A90-3234A0E01EC1}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1352,47 +1352,43 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1401,52 +1397,48 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -1456,39 +1448,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1501,44 +1493,44 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1547,44 +1539,44 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,44 +1588,44 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,40 +1636,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>607</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>627</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1234</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -1689,9 +1687,11 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>607</v>
+      </c>
       <c r="E11" s="7" t="s">
         <v>16</v>
       </c>
@@ -1702,9 +1702,11 @@
         <v>16</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>627</v>
+      </c>
       <c r="J11" s="7" t="s">
         <v>16</v>
       </c>
@@ -1715,9 +1717,11 @@
         <v>16</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1234</v>
+      </c>
       <c r="O11" s="7" t="s">
         <v>16</v>
       </c>
@@ -1739,46 +1743,44 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>1234</v>
+        <v>641</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,46 +1792,44 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>1234</v>
+        <v>641</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1846,13 +1846,13 @@
         <v>1873</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1861,13 +1861,13 @@
         <v>627</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -1876,13 +1876,13 @@
         <v>2500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,13 +1897,13 @@
         <v>1873</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -1912,13 +1912,13 @@
         <v>627</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -1927,13 +1927,13 @@
         <v>2500</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BDCEDFB-85E9-4F84-A3BD-214C3523DA57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479569B-7849-4769-8B9C-1D5354C015BD}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2072,49 +2072,43 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,54 +2117,48 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
@@ -2182,13 +2170,13 @@
         <v>652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -2197,13 +2185,13 @@
         <v>1950</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -2212,13 +2200,13 @@
         <v>2602</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,13 +2221,13 @@
         <v>652</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2248,13 +2236,13 @@
         <v>1950</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2263,64 +2251,66 @@
         <v>2602</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>717</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>772</v>
+        <v>1306</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>772</v>
+        <v>2024</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,9 +2319,11 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>717</v>
+      </c>
       <c r="E9" s="7" t="s">
         <v>16</v>
       </c>
@@ -2342,34 +2334,34 @@
         <v>16</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>772</v>
+        <v>1306</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>772</v>
+        <v>2024</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,39 +2376,39 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,39 +2421,39 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,36 +2468,40 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>772</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>772</v>
+      </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>16</v>
@@ -2521,18 +2517,20 @@
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>772</v>
+      </c>
       <c r="J13" s="7" t="s">
         <v>16</v>
       </c>
@@ -2543,9 +2541,11 @@
         <v>16</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>772</v>
+      </c>
       <c r="O13" s="7" t="s">
         <v>16</v>
       </c>
@@ -2570,13 +2570,13 @@
         <v>1370</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2585,13 +2585,13 @@
         <v>4028</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2600,13 +2600,13 @@
         <v>5398</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2621,13 @@
         <v>1370</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>6</v>
@@ -2636,13 +2636,13 @@
         <v>4028</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -2651,13 +2651,13 @@
         <v>5398</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85CC8E9C-AC5F-4014-8EB8-C997D0C09721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99192BE2-EECE-4071-9837-03CFA7A09387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{26F8AC27-FC53-4261-940F-1997693C011A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF3E94CA-2FD1-4756-9E6C-DA86C1EED941}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="28">
   <si>
     <t>Menores según si ha consumido laxantes recetados por el médico en 2007 (Tasa respuesta: 0,24%)</t>
   </si>
@@ -106,6 +106,9 @@
     <t>69,43%</t>
   </si>
   <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
     <t>Menores según si ha consumido laxantes recetados por el médico en 2012 (Tasa respuesta: 0,19%)</t>
   </si>
   <si>
@@ -129,7 +132,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -225,39 +228,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -309,7 +312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -420,13 +423,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -435,6 +431,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -499,19 +502,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3868AF5-CBE5-4680-AC60-647A09BA2232}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED759F8-4BD8-4598-82F5-3EA81F6C95F0}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1216,6 +1239,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A8:A9"/>
@@ -1234,8 +1262,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8127C21-97AF-4ED7-9A90-3234A0E01EC1}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351DE749-29BA-43D5-890E-2A4BCA737BCC}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1251,7 +1279,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1879,7 +1907,7 @@
         <v>14</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -1934,6 +1962,11 @@
       </c>
       <c r="Q15" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1954,8 +1987,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F479569B-7849-4769-8B9C-1D5354C015BD}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C41523-CF26-41D9-AC8D-C02FA632562D}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1971,7 +2004,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2203,7 +2236,7 @@
         <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>16</v>
@@ -2588,7 +2621,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -2603,7 +2636,7 @@
         <v>14</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -2658,6 +2691,11 @@
       </c>
       <c r="Q15" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B04-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99192BE2-EECE-4071-9837-03CFA7A09387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB2DA78D-71D1-4B41-8AD8-00E3AB065D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF3E94CA-2FD1-4756-9E6C-DA86C1EED941}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D55444CD-D433-4F31-9382-49E30105EA86}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -76,10 +76,10 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,7 +94,7 @@
     <t>43,07%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -115,7 +115,7 @@
     <t>63,75%</t>
   </si>
   <si>
-    <t>Menores según si ha consumido laxantes recetados por el médico en 2015 (Tasa respuesta: 0,38%)</t>
+    <t>Menores según si ha consumido laxantes recetados por el médico en 2016 (Tasa respuesta: 0,38%)</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -533,7 +533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED759F8-4BD8-4598-82F5-3EA81F6C95F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79500A18-BE9D-44E9-A6A2-FBECD56EA0CC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1262,7 +1262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351DE749-29BA-43D5-890E-2A4BCA737BCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46375AE3-FB5D-4DE7-B616-8C1A727237EA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1987,7 +1987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C41523-CF26-41D9-AC8D-C02FA632562D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86451DF-B17A-4C06-9974-9A94DF048DAA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP16B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB2DA78D-71D1-4B41-8AD8-00E3AB065D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E33A0C32-5285-4E85-8C66-199202C44474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D55444CD-D433-4F31-9382-49E30105EA86}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{510697CD-06F0-4452-AAB7-F3B51FC4FBD2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="27">
   <si>
     <t>Menores según si ha consumido laxantes recetados por el médico en 2007 (Tasa respuesta: 0,24%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -76,9 +76,6 @@
     <t>—%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -94,7 +91,7 @@
     <t>43,07%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -533,8 +530,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79500A18-BE9D-44E9-A6A2-FBECD56EA0CC}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E7E2F9-E18F-4AC0-9730-C4FEEBDBF147}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -743,43 +740,49 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>669</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>698</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1367</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -788,96 +791,100 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>669</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>698</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1367</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>673</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>669</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>673</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1367</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -886,49 +893,47 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>1367</v>
+        <v>673</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -942,44 +947,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>673</v>
+        <v>767</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>813</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1580</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>673</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -991,97 +998,99 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>673</v>
+        <v>767</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>813</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>673</v>
+        <v>1580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>813</v>
+        <v>1436</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>767</v>
+        <v>2184</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>1580</v>
+        <v>3620</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1090,166 +1099,61 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>813</v>
+        <v>1436</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>767</v>
+        <v>2184</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>1580</v>
+        <v>3620</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2184</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1436</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3620</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="7" t="s">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="Q14" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2184</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7">
-        <v>2</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1436</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="7">
-        <v>5</v>
-      </c>
-      <c r="N15" s="7">
-        <v>3620</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1262,8 +1166,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46375AE3-FB5D-4DE7-B616-8C1A727237EA}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F449AC92-6A05-46E4-B3D9-8BE0D2A13095}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1279,7 +1183,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1485,30 +1389,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>625</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>625</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1530,35 +1438,39 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>625</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>625</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1567,44 +1479,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>607</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1234</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>625</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,44 +1530,46 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>607</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>625</v>
+        <v>1234</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,49 +1580,47 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>641</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>627</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>641</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1234</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,54 +1629,52 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>607</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1234</v>
+        <v>641</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1771,44 +1683,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1873</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>641</v>
+        <v>2500</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,161 +1734,58 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1873</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>641</v>
+        <v>2500</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1873</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>627</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2500</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1873</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>627</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="7">
-        <v>4</v>
-      </c>
-      <c r="N15" s="7">
-        <v>2500</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
+      <c r="A14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1987,8 +1798,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86451DF-B17A-4C06-9974-9A94DF048DAA}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71474F8-3C7C-4081-817C-C96C98326993}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2004,7 +1815,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2105,43 +1916,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1950</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>652</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2602</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,43 +1967,49 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1950</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>652</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2602</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,49 +2020,49 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>652</v>
+        <v>1306</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>717</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1950</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>2602</v>
+        <v>2024</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,102 +2071,96 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>652</v>
+        <v>1306</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1950</v>
+        <v>717</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>2602</v>
+        <v>2024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,49 +2169,43 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
-      </c>
-      <c r="N9" s="7">
-        <v>2024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,17 +2216,19 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>772</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2431,17 +2244,19 @@
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>772</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,17 +2265,19 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>772</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2476,68 +2293,72 @@
         <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>772</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4028</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>772</v>
+        <v>1370</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>772</v>
+        <v>5398</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,164 +2367,61 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4028</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>772</v>
+        <v>1370</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>772</v>
+        <v>5398</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1370</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="7">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4028</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5398</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1370</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7">
-        <v>6</v>
-      </c>
-      <c r="I15" s="7">
-        <v>4028</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="7">
-        <v>8</v>
-      </c>
-      <c r="N15" s="7">
-        <v>5398</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
+      <c r="A14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
